--- a/ActionGame/Seuol_CheckList.xlsx
+++ b/ActionGame/Seuol_CheckList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomi1\Desktop\Git\ActionGame\ActionGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomil\Desktop\Git\ActionGame\ActionGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>플레이어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,10 @@
   </si>
   <si>
     <t>35분51초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간 36분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,14 +610,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,7 +936,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -944,7 +948,7 @@
     <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
@@ -992,7 +996,7 @@
       <c r="K3" s="19"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -1000,7 +1004,7 @@
       <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -1010,7 +1014,9 @@
       <c r="G4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1028,7 +1034,7 @@
       <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1056,7 +1062,7 @@
       <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="6" t="s">
         <v>35</v>
       </c>

--- a/ActionGame/Seuol_CheckList.xlsx
+++ b/ActionGame/Seuol_CheckList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomil\Desktop\Git\ActionGame\ActionGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomi1\Desktop\Git\ActionGame\ActionGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>플레이어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,14 @@
   </si>
   <si>
     <t>1시간 36분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,7 +944,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1052,9 @@
       <c r="G5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
@@ -1070,7 +1080,9 @@
       <c r="G6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="I6" s="13" t="s">
         <v>17</v>
       </c>

--- a/ActionGame/Seuol_CheckList.xlsx
+++ b/ActionGame/Seuol_CheckList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomi1\Desktop\Git\ActionGame\ActionGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomil\Desktop\Git\ActionGame\ActionGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="28800" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>플레이어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,22 @@
   </si>
   <si>
     <t>55분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20분48초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21분17초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간 3분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,12 +974,16 @@
     <col min="7" max="7" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
+    <col min="10" max="10" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>28</v>
@@ -1058,7 +1078,9 @@
       <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="K5" s="20" t="s">
         <v>4</v>
       </c>
@@ -1136,7 +1158,9 @@
       <c r="I8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="K8" s="20" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1238,9 @@
       <c r="I12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="K12" s="21" t="s">
         <v>19</v>
       </c>

--- a/ActionGame/Seuol_CheckList.xlsx
+++ b/ActionGame/Seuol_CheckList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomil\Desktop\Git\ActionGame\ActionGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomi1\Desktop\Git\ActionGame\ActionGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>플레이어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,10 @@
   </si>
   <si>
     <t>1시간 3분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +298,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -561,13 +565,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,6 +656,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1048,7 +1066,9 @@
       <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="K4" s="20" t="s">
         <v>18</v>
       </c>
@@ -1078,13 +1098,13 @@
       <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="J5" s="25"/>
       <c r="K5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -1108,7 +1128,7 @@
       <c r="I6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
@@ -1247,8 +1267,9 @@
       <c r="L12" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="J4:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ActionGame/Seuol_CheckList.xlsx
+++ b/ActionGame/Seuol_CheckList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomi1\Desktop\Git\ActionGame\ActionGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GimGimGim\Desktop\Git\ActionGame\ActionGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="28800" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="28800" windowHeight="12410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>플레이어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>1시간 3분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24분 13초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38분 55초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -582,7 +594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,6 +671,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,11 +992,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -990,19 +1005,19 @@
     <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1028,7 +1043,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="17"/>
@@ -1042,7 +1057,7 @@
       <c r="K3" s="19"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -1056,7 +1071,9 @@
       <c r="E4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="G4" s="13" t="s">
         <v>38</v>
       </c>
@@ -1074,7 +1091,7 @@
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -1088,7 +1105,9 @@
       <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="G5" s="13" t="s">
         <v>39</v>
       </c>
@@ -1102,11 +1121,9 @@
       <c r="K5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -1118,7 +1135,9 @@
       <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="G6" s="13" t="s">
         <v>41</v>
       </c>
@@ -1134,7 +1153,7 @@
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1160,7 +1179,7 @@
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -1186,11 +1205,13 @@
       </c>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
@@ -1208,7 +1229,7 @@
       </c>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -1228,7 +1249,7 @@
       </c>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="11"/>
@@ -1246,7 +1267,7 @@
       </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="12"/>

--- a/ActionGame/Seuol_CheckList.xlsx
+++ b/ActionGame/Seuol_CheckList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GimGimGim\Desktop\Git\ActionGame\ActionGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomil\Desktop\Git\ActionGame\ActionGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="28800" windowHeight="12410"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="28800" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>플레이어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,26 @@
   </si>
   <si>
     <t>10분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시간47분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,6 +684,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,9 +694,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,10 +1013,10 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1005,19 +1025,19 @@
     <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1043,7 +1063,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="17"/>
@@ -1057,11 +1077,13 @@
       <c r="K3" s="19"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
@@ -1083,7 +1105,7 @@
       <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="24" t="s">
         <v>54</v>
       </c>
       <c r="K4" s="20" t="s">
@@ -1091,21 +1113,23 @@
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="23" t="s">
         <v>56</v>
       </c>
       <c r="G5" s="13" t="s">
@@ -1117,21 +1141,23 @@
       <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="25"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
@@ -1147,13 +1173,13 @@
       <c r="I6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1179,7 +1205,7 @@
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -1193,7 +1219,9 @@
       <c r="G8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1203,9 +1231,11 @@
       <c r="K8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -1229,7 +1259,7 @@
       </c>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -1249,7 +1279,7 @@
       </c>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="11"/>
@@ -1267,7 +1297,7 @@
       </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="12"/>

--- a/ActionGame/Seuol_CheckList.xlsx
+++ b/ActionGame/Seuol_CheckList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomil\Desktop\Git\ActionGame\ActionGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomi1\Desktop\Git\ActionGame\ActionGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>플레이어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2시간47분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,6 +294,42 @@
   </si>
   <si>
     <t>17분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7분 6초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간 7분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간 7분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴화면 구성 2시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25분 46초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1082,7 +1114,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>21</v>
@@ -1111,14 +1143,16 @@
       <c r="K4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="24" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>22</v>
@@ -1145,14 +1179,14 @@
       <c r="K5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>23</v>
@@ -1177,13 +1211,15 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="C7" s="10" t="s">
         <v>42</v>
       </c>
@@ -1195,15 +1231,19 @@
       <c r="G7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="I7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="K7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1213,14 +1253,16 @@
       <c r="C8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>13</v>
@@ -1231,9 +1273,7 @@
       <c r="K8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1253,11 +1293,13 @@
       <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -1273,11 +1315,13 @@
       <c r="I10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="K10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1291,11 +1335,13 @@
       <c r="I11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="K11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -1317,10 +1363,16 @@
       </c>
       <c r="L12" s="9"/>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="J4:J6"/>
+    <mergeCell ref="L4:L11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ActionGame/Seuol_CheckList.xlsx
+++ b/ActionGame/Seuol_CheckList.xlsx
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/ActionGame/Seuol_CheckList.xlsx
+++ b/ActionGame/Seuol_CheckList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomi1\Desktop\Git\ActionGame\ActionGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lomil\Desktop\Git\ActionGame\ActionGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>플레이어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,10 @@
   </si>
   <si>
     <t>25분 46초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간 57분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,7 +1049,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1289,7 +1293,9 @@
       <c r="G9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
